--- a/tests/regression_data/performance_analysis_moustapha_win.xlsx
+++ b/tests/regression_data/performance_analysis_moustapha_win.xlsx
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.07859034877902</v>
+        <v>2.078590353184963</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000038325</v>
+        <v>2.400000000184951</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701005606733803</v>
+        <v>2.701005597172957</v>
       </c>
       <c r="E3" t="n">
-        <v>89.42866546963789</v>
+        <v>89.42866543359041</v>
       </c>
       <c r="F3" t="n">
-        <v>75.90048139716826</v>
+        <v>75.90048155532621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512734647377982</v>
+        <v>0.1512734626271509</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05175486190606</v>
+        <v>-75.05175501795335</v>
       </c>
       <c r="I3" t="n">
-        <v>134617.2629859183</v>
+        <v>134617.2627899181</v>
       </c>
       <c r="J3" t="n">
-        <v>82.73955930296148</v>
+        <v>82.7395591824942</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41972823924697</v>
+        <v>-26.41972781879678</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9489175454296</v>
+        <v>140.9489165621327</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371944.7481755637</v>
+        <v>371944.7480717101</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983018889527245</v>
+        <v>0.6983018877168223</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.34035770271539</v>
+        <v>79.34035770271541</v>
       </c>
       <c r="D2" t="n">
-        <v>79.34035770271539</v>
+        <v>79.34035770271541</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34035770271539</v>
+        <v>79.34035770271541</v>
       </c>
       <c r="H2" t="n">
-        <v>79.34035770271539</v>
+        <v>79.34035770271541</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0.2313316258719691</v>
       </c>
       <c r="DB2" t="n">
-        <v>180918.6819740036</v>
+        <v>180918.6819740037</v>
       </c>
       <c r="DC2" t="n">
         <v>2.698749322956272</v>
@@ -4483,7 +4483,7 @@
         <v>0.1638745643551705</v>
       </c>
       <c r="QJ2" t="n">
-        <v>4.725980717878997e-11</v>
+        <v>4.725983493436559e-11</v>
       </c>
       <c r="QK2" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.41044567550462</v>
+        <v>79.41044538452999</v>
       </c>
       <c r="D3" t="n">
-        <v>79.41044567550462</v>
+        <v>79.41044538452999</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.41044567550462</v>
+        <v>79.41044538452999</v>
       </c>
       <c r="H3" t="n">
-        <v>79.41044567550462</v>
+        <v>79.41044538452999</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4521,97 +4521,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4562209073399</v>
+        <v>292.4562209303804</v>
       </c>
       <c r="L3" t="n">
-        <v>132937.2625888193</v>
+        <v>132937.2626254275</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584336430880911</v>
+        <v>1.58433643119213</v>
       </c>
       <c r="N3" t="n">
-        <v>334724.2034595895</v>
+        <v>334724.2034760718</v>
       </c>
       <c r="O3" t="n">
-        <v>418631.4216473986</v>
+        <v>418631.4216705049</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687706.2898710947</v>
+        <v>-687706.2899351484</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7176088211252</v>
+        <v>717.7176088221696</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653115304472</v>
+        <v>1006.653115305684</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575473880226</v>
+        <v>1.402575473879873</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986897352175</v>
+        <v>0.9994986897353786</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9691216807872</v>
+        <v>342.9691216943098</v>
       </c>
       <c r="W3" t="n">
-        <v>186362.038018134</v>
+        <v>186362.0380694378</v>
       </c>
       <c r="X3" t="n">
-        <v>5.365899679111123e-06</v>
+        <v>5.365899677633939e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132871.3081675122</v>
+        <v>132871.308204124</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526079285223034e-06</v>
+        <v>7.526079283149279e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432243760745862</v>
+        <v>0.003432243760475897</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817648669550301e-05</v>
+        <v>1.81764866966302e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583212612755812</v>
+        <v>0.02583212612929441</v>
       </c>
       <c r="AD3" t="n">
-        <v>132937.2625888193</v>
+        <v>132937.2626254275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584336430880911</v>
+        <v>1.58433643119213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584336430880911</v>
+        <v>1.58433643119213</v>
       </c>
       <c r="AG3" t="n">
-        <v>334724.2034595895</v>
+        <v>334724.2034760718</v>
       </c>
       <c r="AH3" t="n">
-        <v>418631.4216473986</v>
+        <v>418631.4216705049</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7176088211252</v>
+        <v>717.7176088221696</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653115304472</v>
+        <v>1006.653115305684</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9691216807872</v>
+        <v>342.9691216943098</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986897352175</v>
+        <v>0.9994986897353786</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817648669550301e-05</v>
+        <v>1.81764866966302e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583212612755812</v>
+        <v>0.02583212612929441</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4800,16 +4800,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2315381783827599</v>
+        <v>0.231538177525232</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2315381783827599</v>
+        <v>0.231538177525232</v>
       </c>
       <c r="DB3" t="n">
-        <v>181072.6422024918</v>
+        <v>181072.641563348</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.701005606823143</v>
+        <v>2.701005597456729</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4858,325 +4858,325 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>262.1360861579157</v>
+        <v>262.1360880469915</v>
       </c>
       <c r="DO3" t="n">
-        <v>108.1411333734085</v>
+        <v>108.1411335551506</v>
       </c>
       <c r="DP3" t="n">
-        <v>238.7903325909675</v>
+        <v>238.7903345824265</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.63562318476484</v>
+        <v>65.63562332814774</v>
       </c>
       <c r="DR3" t="n">
-        <v>262.1360861579157</v>
+        <v>262.1360880469915</v>
       </c>
       <c r="DS3" t="n">
-        <v>108.1411333734085</v>
+        <v>108.1411335551506</v>
       </c>
       <c r="DT3" t="n">
-        <v>238.7903325909675</v>
+        <v>238.7903345824265</v>
       </c>
       <c r="DU3" t="n">
-        <v>65.63562318476485</v>
+        <v>65.63562332814774</v>
       </c>
       <c r="DV3" t="n">
-        <v>261.3138773190262</v>
+        <v>261.3138768248</v>
       </c>
       <c r="DW3" t="n">
-        <v>87209.74233337035</v>
+        <v>87209.74172229681</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.163413570315943</v>
+        <v>1.163413564366616</v>
       </c>
       <c r="DY3" t="n">
-        <v>312466.5428273744</v>
+        <v>312466.542474299</v>
       </c>
       <c r="DZ3" t="n">
-        <v>387426.767255294</v>
+        <v>387426.7667602995</v>
       </c>
       <c r="EA3" t="n">
-        <v>3791.037829031435</v>
+        <v>3791.037829147186</v>
       </c>
       <c r="EB3" t="n">
-        <v>-603224.0269120137</v>
+        <v>-603224.0255636254</v>
       </c>
       <c r="EC3" t="n">
-        <v>716.5822797270287</v>
+        <v>716.5822797132153</v>
       </c>
       <c r="ED3" t="n">
-        <v>1005.248035859546</v>
+        <v>1005.248035841679</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.402836860887043</v>
+        <v>1.402836860889151</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.9993374759794644</v>
+        <v>0.9993374759775192</v>
       </c>
       <c r="EG3" t="n">
-        <v>324.1721407822263</v>
+        <v>324.1721404752785</v>
       </c>
       <c r="EH3" t="n">
-        <v>122260.312989766</v>
+        <v>122260.3121330372</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.179269098417134e-06</v>
+        <v>8.179269155732669e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>87152.19595274843</v>
+        <v>87152.19534190575</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.147418018637388e-05</v>
+        <v>1.147418026679548e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003840115545928063</v>
+        <v>0.003840115553171497</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.661802012521045e-05</v>
+        <v>1.661802009991006e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02344319812568613</v>
+        <v>0.02344319808709962</v>
       </c>
       <c r="EO3" t="n">
-        <v>87209.74233337035</v>
+        <v>87209.74172229681</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.163413570315943</v>
+        <v>1.163413564366616</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.163413570315943</v>
+        <v>1.163413564366616</v>
       </c>
       <c r="ER3" t="n">
-        <v>312466.5428273744</v>
+        <v>312466.542474299</v>
       </c>
       <c r="ES3" t="n">
-        <v>387426.767255294</v>
+        <v>387426.7667602995</v>
       </c>
       <c r="ET3" t="n">
-        <v>3791.037829031435</v>
+        <v>3791.037829147186</v>
       </c>
       <c r="EU3" t="n">
-        <v>716.5822797270287</v>
+        <v>716.5822797132153</v>
       </c>
       <c r="EV3" t="n">
-        <v>1005.248035859546</v>
+        <v>1005.248035841679</v>
       </c>
       <c r="EW3" t="n">
-        <v>324.1721407822263</v>
+        <v>324.1721404752785</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.9993374759794644</v>
+        <v>0.9993374759775192</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.661802012521045e-05</v>
+        <v>1.661802009991006e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02344319812568613</v>
+        <v>0.02344319808709962</v>
       </c>
       <c r="FA3" t="n">
-        <v>295.591070874702</v>
+        <v>295.5910708745762</v>
       </c>
       <c r="FB3" t="n">
-        <v>134148.9565549523</v>
+        <v>134148.9565008319</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="FD3" t="n">
-        <v>336974.7974821343</v>
+        <v>336974.7974821546</v>
       </c>
       <c r="FE3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FF3" t="n">
-        <v>3791.037829036659</v>
+        <v>3791.03782915241</v>
       </c>
       <c r="FG3" t="n">
-        <v>-698812.5005228616</v>
+        <v>-698812.5005566002</v>
       </c>
       <c r="FH3" t="n">
-        <v>717.8532055403268</v>
+        <v>717.8532055401859</v>
       </c>
       <c r="FI3" t="n">
-        <v>1006.758353832301</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.402457140348793</v>
+        <v>1.402457140347831</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.9995341712882564</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="FL3" t="n">
-        <v>344.8000645106844</v>
+        <v>344.8000645105556</v>
       </c>
       <c r="FM3" t="n">
-        <v>188051.4943118457</v>
+        <v>188051.494235884</v>
       </c>
       <c r="FN3" t="n">
-        <v>5.317692388775707e-06</v>
+        <v>5.317692390923742e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>134087.1595299355</v>
+        <v>134087.1594758641</v>
       </c>
       <c r="FP3" t="n">
-        <v>7.45783566081692e-06</v>
+        <v>7.457835663824329e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.003395544649991728</v>
+        <v>0.003395544649988161</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.832896306783361e-05</v>
+        <v>1.832896306781971e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02606673348873731</v>
+        <v>0.02606673348871059</v>
       </c>
       <c r="FT3" t="n">
-        <v>134148.9565549523</v>
+        <v>134148.9565008319</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="FW3" t="n">
-        <v>336974.7974821343</v>
+        <v>336974.7974821546</v>
       </c>
       <c r="FX3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FY3" t="n">
-        <v>3791.037829036659</v>
+        <v>3791.03782915241</v>
       </c>
       <c r="FZ3" t="n">
-        <v>717.8532055403268</v>
+        <v>717.8532055401859</v>
       </c>
       <c r="GA3" t="n">
-        <v>1006.758353832301</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="GB3" t="n">
-        <v>344.8000645106844</v>
+        <v>344.8000645105556</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.9995341712882564</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.832896306783361e-05</v>
+        <v>1.832896306781971e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02606673348873731</v>
+        <v>0.02606673348871059</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.591070874702</v>
+        <v>295.5910708745762</v>
       </c>
       <c r="GG3" t="n">
-        <v>134148.9565549523</v>
+        <v>134148.9565008319</v>
       </c>
       <c r="GH3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="GI3" t="n">
-        <v>336974.7974821343</v>
+        <v>336974.7974821546</v>
       </c>
       <c r="GJ3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GK3" t="n">
-        <v>3791.037829036659</v>
+        <v>3791.03782915241</v>
       </c>
       <c r="GL3" t="n">
-        <v>-698812.5005228616</v>
+        <v>-698812.5005566002</v>
       </c>
       <c r="GM3" t="n">
-        <v>717.8532055403268</v>
+        <v>717.8532055401859</v>
       </c>
       <c r="GN3" t="n">
-        <v>1006.758353832301</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402457140348793</v>
+        <v>1.402457140347831</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9995341712882564</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="GQ3" t="n">
-        <v>344.8000645106844</v>
+        <v>344.8000645105556</v>
       </c>
       <c r="GR3" t="n">
-        <v>188051.4943118457</v>
+        <v>188051.494235884</v>
       </c>
       <c r="GS3" t="n">
-        <v>5.317692388775707e-06</v>
+        <v>5.317692390923742e-06</v>
       </c>
       <c r="GT3" t="n">
-        <v>134087.1595299355</v>
+        <v>134087.1594758641</v>
       </c>
       <c r="GU3" t="n">
-        <v>7.45783566081692e-06</v>
+        <v>7.457835663824329e-06</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.003395544649991728</v>
+        <v>0.003395544649988161</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.832896306783361e-05</v>
+        <v>1.832896306781971e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02606673348873731</v>
+        <v>0.02606673348871059</v>
       </c>
       <c r="GY3" t="n">
-        <v>134148.9565549523</v>
+        <v>134148.9565008319</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.58176554773774</v>
+        <v>1.581765547099982</v>
       </c>
       <c r="HB3" t="n">
-        <v>336974.7974821343</v>
+        <v>336974.7974821546</v>
       </c>
       <c r="HC3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="HD3" t="n">
-        <v>3791.037829036659</v>
+        <v>3791.03782915241</v>
       </c>
       <c r="HE3" t="n">
-        <v>717.8532055403268</v>
+        <v>717.8532055401859</v>
       </c>
       <c r="HF3" t="n">
-        <v>1006.758353832301</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="HG3" t="n">
-        <v>344.8000645106844</v>
+        <v>344.8000645105556</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9995341712882564</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.832896306783361e-05</v>
+        <v>1.832896306781971e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02606673348873731</v>
+        <v>0.02606673348871059</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.8086323689795867</v>
+        <v>0.8086323755726385</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.8086323689795867</v>
+        <v>0.8086323755726385</v>
       </c>
       <c r="HM3" t="n">
-        <v>480086.390931014</v>
+        <v>480086.3926666484</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.701005606818386</v>
+        <v>2.701005597545615</v>
       </c>
       <c r="HO3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.01761869839159354</v>
+        <v>0.01761869853766278</v>
       </c>
       <c r="HQ3" t="n">
         <v>0</v>
@@ -5185,16 +5185,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.0491444352530653</v>
+        <v>0.04914443528569918</v>
       </c>
       <c r="HT3" t="n">
         <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.08204320218390196</v>
+        <v>0.08204320236260509</v>
       </c>
       <c r="HV3" t="n">
-        <v>3.208683319044781e-13</v>
+        <v>1.129818461009791e-12</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -5203,664 +5203,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY3" t="n">
-        <v>262.1360861579157</v>
+        <v>262.1360880469915</v>
       </c>
       <c r="HZ3" t="n">
-        <v>108.1411333734085</v>
+        <v>108.1411335551506</v>
       </c>
       <c r="IA3" t="n">
-        <v>238.7903325909675</v>
+        <v>238.7903345824265</v>
       </c>
       <c r="IB3" t="n">
-        <v>65.63562318476484</v>
+        <v>65.63562332814774</v>
       </c>
       <c r="IC3" t="n">
-        <v>130.747326487878</v>
+        <v>130.7473277575056</v>
       </c>
       <c r="ID3" t="n">
-        <v>108.1411333734085</v>
+        <v>108.1411335551506</v>
       </c>
       <c r="IE3" t="n">
-        <v>73.48713259096752</v>
+        <v>73.48713458242645</v>
       </c>
       <c r="IF3" t="n">
-        <v>34.198004485821</v>
+        <v>34.19800516286148</v>
       </c>
       <c r="IG3" t="n">
-        <v>261.3138773191261</v>
+        <v>261.3138768247066</v>
       </c>
       <c r="IH3" t="n">
-        <v>87209.74233332094</v>
+        <v>87209.74172218761</v>
       </c>
       <c r="II3" t="n">
-        <v>1.163413570314837</v>
+        <v>1.163413564365576</v>
       </c>
       <c r="IJ3" t="n">
-        <v>312466.542827446</v>
+        <v>312466.5424742321</v>
       </c>
       <c r="IK3" t="n">
-        <v>387426.7672553944</v>
+        <v>387426.7667602059</v>
       </c>
       <c r="IL3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="IM3" t="n">
-        <v>-603224.0269124352</v>
+        <v>-603224.0255633651</v>
       </c>
       <c r="IN3" t="n">
-        <v>716.5822797270308</v>
+        <v>716.5822797132128</v>
       </c>
       <c r="IO3" t="n">
-        <v>1005.248035859545</v>
+        <v>1005.248035841676</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.402836860887038</v>
+        <v>1.402836860889152</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.9993374759794661</v>
+        <v>0.9993374759775188</v>
       </c>
       <c r="IR3" t="n">
-        <v>324.1721407822884</v>
+        <v>324.1721404752205</v>
       </c>
       <c r="IS3" t="n">
-        <v>122260.3129896966</v>
+        <v>122260.3121328841</v>
       </c>
       <c r="IT3" t="n">
-        <v>8.179269098421776e-06</v>
+        <v>8.179269155742913e-06</v>
       </c>
       <c r="IU3" t="n">
-        <v>87152.1959526992</v>
+        <v>87152.19534179661</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.147418018638036e-05</v>
+        <v>1.147418026680985e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.003840115545926573</v>
+        <v>0.003840115553172866</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.661802012521553e-05</v>
+        <v>1.661802009990528e-05</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.02344319812569387</v>
+        <v>0.02344319808709232</v>
       </c>
       <c r="IZ3" t="n">
-        <v>87209.74233332094</v>
+        <v>87209.74172218761</v>
       </c>
       <c r="JA3" t="n">
-        <v>1.163413570314837</v>
+        <v>1.163413564365576</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.163413570314837</v>
+        <v>1.163413564365576</v>
       </c>
       <c r="JC3" t="n">
-        <v>312466.542827446</v>
+        <v>312466.5424742321</v>
       </c>
       <c r="JD3" t="n">
-        <v>387426.7672553944</v>
+        <v>387426.7667602059</v>
       </c>
       <c r="JE3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="JF3" t="n">
-        <v>716.5822797270308</v>
+        <v>716.5822797132128</v>
       </c>
       <c r="JG3" t="n">
-        <v>1005.248035859545</v>
+        <v>1005.248035841676</v>
       </c>
       <c r="JH3" t="n">
-        <v>324.1721407822884</v>
+        <v>324.1721404752205</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.9993374759794661</v>
+        <v>0.9993374759775188</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.661802012521553e-05</v>
+        <v>1.661802009990528e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02344319812569387</v>
+        <v>0.02344319808709232</v>
       </c>
       <c r="JL3" t="n">
-        <v>295.5910708748013</v>
+        <v>295.5910708744763</v>
       </c>
       <c r="JM3" t="n">
-        <v>134148.9565548541</v>
+        <v>134148.9565006722</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.581765547736048</v>
+        <v>1.581765547098634</v>
       </c>
       <c r="JO3" t="n">
-        <v>336974.7974822057</v>
+        <v>336974.7974820828</v>
       </c>
       <c r="JP3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.037829037209</v>
+        <v>3791.037829152413</v>
       </c>
       <c r="JR3" t="n">
-        <v>-698812.5005233007</v>
+        <v>-698812.5005563223</v>
       </c>
       <c r="JS3" t="n">
-        <v>717.8532055403309</v>
+        <v>717.8532055401812</v>
       </c>
       <c r="JT3" t="n">
-        <v>1006.758353832302</v>
+        <v>1006.758353831407</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.402457140348787</v>
+        <v>1.402457140347832</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9995341712882579</v>
+        <v>0.9995341712884399</v>
       </c>
       <c r="JW3" t="n">
-        <v>344.8000645107421</v>
+        <v>344.8000645104972</v>
       </c>
       <c r="JX3" t="n">
-        <v>188051.4943117075</v>
+        <v>188051.4942356601</v>
       </c>
       <c r="JY3" t="n">
-        <v>5.317692388779615e-06</v>
+        <v>5.317692390930072e-06</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134087.1595298375</v>
+        <v>134087.1594757044</v>
       </c>
       <c r="KA3" t="n">
-        <v>7.457835660822368e-06</v>
+        <v>7.457835663833216e-06</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.003395544649990565</v>
+        <v>0.003395544649989307</v>
       </c>
       <c r="KC3" t="n">
-        <v>1.832896306783841e-05</v>
+        <v>1.832896306781484e-05</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.02606673348874469</v>
+        <v>0.02606673348870308</v>
       </c>
       <c r="KE3" t="n">
-        <v>134148.9565548541</v>
+        <v>134148.9565006722</v>
       </c>
       <c r="KF3" t="n">
-        <v>1.581765547736048</v>
+        <v>1.581765547098634</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.581765547736048</v>
+        <v>1.581765547098634</v>
       </c>
       <c r="KH3" t="n">
-        <v>336974.7974822057</v>
+        <v>336974.7974820828</v>
       </c>
       <c r="KI3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="KJ3" t="n">
-        <v>3791.037829037209</v>
+        <v>3791.037829152413</v>
       </c>
       <c r="KK3" t="n">
-        <v>717.8532055403309</v>
+        <v>717.8532055401812</v>
       </c>
       <c r="KL3" t="n">
-        <v>1006.758353832302</v>
+        <v>1006.758353831407</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8000645107421</v>
+        <v>344.8000645104972</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.9995341712882579</v>
+        <v>0.9995341712884399</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.832896306783841e-05</v>
+        <v>1.832896306781484e-05</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.02606673348874469</v>
+        <v>0.02606673348870308</v>
       </c>
       <c r="KQ3" t="n">
-        <v>269.8451961537813</v>
+        <v>269.8451958249404</v>
       </c>
       <c r="KR3" t="n">
-        <v>97564.93611462522</v>
+        <v>97564.93566028924</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.26035515721205</v>
+        <v>1.260355152880589</v>
       </c>
       <c r="KT3" t="n">
-        <v>318563.5297750945</v>
+        <v>318563.5295401448</v>
       </c>
       <c r="KU3" t="n">
-        <v>395974.1989474587</v>
+        <v>395974.1986180637</v>
       </c>
       <c r="KV3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="KW3" t="n">
-        <v>-627019.147654082</v>
+        <v>-627019.1467679159</v>
       </c>
       <c r="KX3" t="n">
-        <v>716.8371394214483</v>
+        <v>716.8371394107685</v>
       </c>
       <c r="KY3" t="n">
-        <v>1005.5618574382</v>
+        <v>1005.561857424567</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.402775891675727</v>
+        <v>1.402775891677608</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9993782664586158</v>
+        <v>0.999378266457189</v>
       </c>
       <c r="LB3" t="n">
-        <v>329.4277661615021</v>
+        <v>329.4277659605237</v>
       </c>
       <c r="LC3" t="n">
-        <v>136777.085531804</v>
+        <v>136777.0848948515</v>
       </c>
       <c r="LD3" t="n">
-        <v>7.311166165822972e-06</v>
+        <v>7.311166199870091e-06</v>
       </c>
       <c r="LE3" t="n">
-        <v>97504.58811236975</v>
+        <v>97504.58765817323</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.025592763745173e-05</v>
+        <v>1.025592768522596e-05</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.003718934957198066</v>
+        <v>0.003718934961716401</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.705188199910826e-05</v>
+        <v>1.705188198248499e-05</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.02410574225602749</v>
+        <v>0.02410574223060201</v>
       </c>
       <c r="LJ3" t="n">
-        <v>97564.93611462522</v>
+        <v>97564.93566028924</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.26035515721205</v>
+        <v>1.260355152880589</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.26035515721205</v>
+        <v>1.260355152880589</v>
       </c>
       <c r="LM3" t="n">
-        <v>318563.5297750945</v>
+        <v>318563.5295401448</v>
       </c>
       <c r="LN3" t="n">
-        <v>395974.1989474587</v>
+        <v>395974.1986180637</v>
       </c>
       <c r="LO3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8371394214483</v>
+        <v>716.8371394107685</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.5618574382</v>
+        <v>1005.561857424567</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.4277661615021</v>
+        <v>329.4277659605237</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993782664586158</v>
+        <v>0.999378266457189</v>
       </c>
       <c r="LT3" t="n">
-        <v>1.705188199910826e-05</v>
+        <v>1.705188198248499e-05</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.02410574225602749</v>
+        <v>0.02410574223060201</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.8086323689794318</v>
+        <v>0.8086323755727832</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.4033268441031365</v>
+        <v>0.4033268484017053</v>
       </c>
       <c r="LX3" t="n">
-        <v>238540.4714186202</v>
+        <v>238540.4728784826</v>
       </c>
       <c r="LY3" t="n">
-        <v>2.701005606815818</v>
+        <v>2.701005597543199</v>
       </c>
       <c r="LZ3" t="n">
-        <v>382311.6249822386</v>
+        <v>382311.624653044</v>
       </c>
       <c r="MA3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB3" t="n">
-        <v>140.9489175454296</v>
+        <v>140.9489165621327</v>
       </c>
       <c r="MC3" t="n">
-        <v>126.2280165576914</v>
+        <v>126.2280161373041</v>
       </c>
       <c r="MD3" t="n">
-        <v>-62.7143141008454</v>
+        <v>-62.71431273704229</v>
       </c>
       <c r="ME3" t="n">
-        <v>-26.41972823924697</v>
+        <v>-26.41972781879678</v>
       </c>
       <c r="MF3" t="n">
-        <v>260.6252077233091</v>
+        <v>260.6252063265308</v>
       </c>
       <c r="MG3" t="n">
-        <v>126.2280165576914</v>
+        <v>126.2280161373041</v>
       </c>
       <c r="MH3" t="n">
-        <v>-228.0175141008454</v>
+        <v>-228.0175127370423</v>
       </c>
       <c r="MI3" t="n">
-        <v>-61.03156317356603</v>
+        <v>-61.03156310921094</v>
       </c>
       <c r="MJ3" t="n">
-        <v>235.9233320305991</v>
+        <v>235.9233320654598</v>
       </c>
       <c r="MK3" t="n">
-        <v>57499.99999812434</v>
+        <v>57499.99999461143</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.8496677680752945</v>
+        <v>0.8496677678974121</v>
       </c>
       <c r="MM3" t="n">
-        <v>294337.9397338863</v>
+        <v>294337.9397588805</v>
       </c>
       <c r="MN3" t="n">
-        <v>362011.4494968563</v>
+        <v>362011.4495318838</v>
       </c>
       <c r="MO3" t="n">
-        <v>3808.205261105689</v>
+        <v>3808.205261271683</v>
       </c>
       <c r="MP3" t="n">
-        <v>-536433.0247596556</v>
+        <v>-536433.0248965468</v>
       </c>
       <c r="MQ3" t="n">
-        <v>716.0089809904586</v>
+        <v>716.0089809908837</v>
       </c>
       <c r="MR3" t="n">
-        <v>1004.418518595265</v>
+        <v>1004.418518595124</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.402801564312571</v>
+        <v>1.402801564311541</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.999290083299187</v>
+        <v>0.9992900832996848</v>
       </c>
       <c r="MU3" t="n">
-        <v>308.001996320466</v>
+        <v>308.0019963432619</v>
       </c>
       <c r="MV3" t="n">
-        <v>80603.92801892021</v>
+        <v>80603.92801397668</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.240634327107817e-05</v>
+        <v>1.240634327183907e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>57459.25159302154</v>
+        <v>57459.25158953973</v>
       </c>
       <c r="MY3" t="n">
-        <v>1.74036377480672e-05</v>
+        <v>1.740363774912179e-05</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.004251713106076999</v>
+        <v>0.004251713105442458</v>
       </c>
       <c r="NA3" t="n">
-        <v>1.52921750871051e-05</v>
+        <v>1.529217508895565e-05</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.02142935642598932</v>
+        <v>0.02142935642878185</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999812434</v>
+        <v>57499.99999461143</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8496677680752945</v>
+        <v>0.8496677678974121</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.8496677680752945</v>
+        <v>0.8496677678974121</v>
       </c>
       <c r="NF3" t="n">
-        <v>294337.9397338863</v>
+        <v>294337.9397588805</v>
       </c>
       <c r="NG3" t="n">
-        <v>362011.4494968563</v>
+        <v>362011.4495318838</v>
       </c>
       <c r="NH3" t="n">
-        <v>3808.205261105689</v>
+        <v>3808.205261271683</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0089809904586</v>
+        <v>716.0089809908837</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418518595265</v>
+        <v>1004.418518595124</v>
       </c>
       <c r="NK3" t="n">
-        <v>308.001996320466</v>
+        <v>308.0019963432619</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.999290083299187</v>
+        <v>0.9992900832996848</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.52921750871051e-05</v>
+        <v>1.529217508895565e-05</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.02142935642598932</v>
+        <v>0.02142935642878185</v>
       </c>
       <c r="NO3" t="n">
-        <v>245.8425921373922</v>
+        <v>245.8425920335508</v>
       </c>
       <c r="NP3" t="n">
-        <v>66391.14825043057</v>
+        <v>66391.14810970268</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9414405113243126</v>
+        <v>0.941440509726315</v>
       </c>
       <c r="NR3" t="n">
-        <v>301423.9372992195</v>
+        <v>301423.9372251456</v>
       </c>
       <c r="NS3" t="n">
-        <v>371944.7481755637</v>
+        <v>371944.7480717101</v>
       </c>
       <c r="NT3" t="n">
-        <v>3808.205261104545</v>
+        <v>3808.205261290142</v>
       </c>
       <c r="NU3" t="n">
-        <v>-564274.3046056322</v>
+        <v>-564274.3043596641</v>
       </c>
       <c r="NV3" t="n">
-        <v>716.1931655494681</v>
+        <v>716.1931655471549</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.665607146385</v>
+        <v>1004.66560714249</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402785806222542</v>
+        <v>1.402785806221634</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9993185309260825</v>
+        <v>0.9993185309261901</v>
       </c>
       <c r="NZ3" t="n">
-        <v>314.4174609008135</v>
+        <v>314.4174608343411</v>
       </c>
       <c r="OA3" t="n">
-        <v>93069.2458940241</v>
+        <v>93069.24569669637</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.074468789763998e-05</v>
+        <v>1.074468792042113e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>66346.01339789953</v>
+        <v>66346.01325727403</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.507249567510049e-05</v>
+        <v>1.507249570704781e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004080492906596017</v>
+        <v>0.00408049290830796</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.58161003939404e-05</v>
+        <v>1.581610038849173e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02222284199857199</v>
+        <v>0.02222284199029966</v>
       </c>
       <c r="OH3" t="n">
-        <v>66391.14825043057</v>
+        <v>66391.14810970268</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9414405113243126</v>
+        <v>0.941440509726315</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.9414405113243126</v>
+        <v>0.941440509726315</v>
       </c>
       <c r="OK3" t="n">
-        <v>301423.9372992195</v>
+        <v>301423.9372251456</v>
       </c>
       <c r="OL3" t="n">
-        <v>371944.7481755637</v>
+        <v>371944.7480717101</v>
       </c>
       <c r="OM3" t="n">
-        <v>3808.205261104545</v>
+        <v>3808.205261290142</v>
       </c>
       <c r="ON3" t="n">
-        <v>716.1931655494681</v>
+        <v>716.1931655471549</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.665607146385</v>
+        <v>1004.66560714249</v>
       </c>
       <c r="OP3" t="n">
-        <v>314.4174609008135</v>
+        <v>314.4174608343411</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9993185309260825</v>
+        <v>0.9993185309261901</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.58161003939404e-05</v>
+        <v>1.581610038849173e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02222284199857199</v>
+        <v>0.02222284199029966</v>
       </c>
       <c r="OT3" t="n">
-        <v>269.8293785018232</v>
+        <v>269.8293781731551</v>
       </c>
       <c r="OU3" t="n">
-        <v>91897.64858271743</v>
+        <v>91897.64813245421</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.187171609559053</v>
+        <v>1.187171605189836</v>
       </c>
       <c r="OW3" t="n">
-        <v>318565.2987996103</v>
+        <v>318565.2985647973</v>
       </c>
       <c r="OX3" t="n">
-        <v>395974.1989474588</v>
+        <v>395974.1986182644</v>
       </c>
       <c r="OY3" t="n">
-        <v>3808.205261095888</v>
+        <v>3808.205261281485</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-631591.4598614181</v>
+        <v>-631591.4589890565</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.8186757316788</v>
+        <v>716.8186757209598</v>
       </c>
       <c r="PB3" t="n">
-        <v>1005.446142849839</v>
+        <v>1005.446142835952</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.402650596154668</v>
+        <v>1.402650596156269</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9994140113581037</v>
+        <v>0.9994140113569048</v>
       </c>
       <c r="PE3" t="n">
-        <v>329.4151214785032</v>
+        <v>329.4151212776688</v>
       </c>
       <c r="PF3" t="n">
-        <v>128825.1226160671</v>
+        <v>128825.121984863</v>
       </c>
       <c r="PG3" t="n">
-        <v>7.762461076635373e-06</v>
+        <v>7.762461114669081e-06</v>
       </c>
       <c r="PH3" t="n">
-        <v>91844.05793519637</v>
+        <v>91844.05748508342</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.088802065677001e-05</v>
+        <v>1.088802071013045e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.003718394223740627</v>
+        <v>0.003718394228253946</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.705022611052719e-05</v>
+        <v>1.70502260939123e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.02410252683296004</v>
+        <v>0.02410252680754621</v>
       </c>
       <c r="PM3" t="n">
-        <v>91897.64858271743</v>
+        <v>91897.64813245421</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.187171609559053</v>
+        <v>1.187171605189836</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.187171609559053</v>
+        <v>1.187171605189836</v>
       </c>
       <c r="PP3" t="n">
-        <v>318565.2987996103</v>
+        <v>318565.2985647973</v>
       </c>
       <c r="PQ3" t="n">
-        <v>395974.1989474588</v>
+        <v>395974.1986182644</v>
       </c>
       <c r="PR3" t="n">
-        <v>3808.205261095888</v>
+        <v>3808.205261281485</v>
       </c>
       <c r="PS3" t="n">
-        <v>716.8186757316788</v>
+        <v>716.8186757209598</v>
       </c>
       <c r="PT3" t="n">
-        <v>1005.446142849839</v>
+        <v>1005.446142835952</v>
       </c>
       <c r="PU3" t="n">
-        <v>329.4151214785032</v>
+        <v>329.4151212776688</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.9994140113581037</v>
+        <v>0.9994140113569048</v>
       </c>
       <c r="PW3" t="n">
-        <v>1.705022611052719e-05</v>
+        <v>1.70502260939123e-05</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.02410252683296004</v>
+        <v>0.02410252680754621</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.4576233895535431</v>
+        <v>0.4576233863271718</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.8461802547933395</v>
+        <v>0.8461802501957466</v>
       </c>
       <c r="QA3" t="n">
-        <v>377372.9021380509</v>
+        <v>377372.8999909101</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.701005606733803</v>
+        <v>2.701005597172957</v>
       </c>
       <c r="QC3" t="n">
-        <v>382311.6249822386</v>
+        <v>382311.624653044</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.02707894880009905</v>
+        <v>0.02707894910851081</v>
       </c>
       <c r="QE3" t="n">
-        <v>0.0007370770797422196</v>
+        <v>0.0007370772172542749</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.01389216954460171</v>
+        <v>0.01389216954113381</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.08157447923654525</v>
+        <v>0.08157448037312864</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.04147531797976777</v>
+        <v>0.04147531836901099</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.164757992640756</v>
+        <v>0.1647579946090385</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-1.313790742862864e-11</v>
+        <v>4.002370657119059e-11</v>
       </c>
       <c r="QK3" t="n">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>0.1638745643551705</v>
       </c>
       <c r="IJ2" t="n">
-        <v>4.725980717878997e-11</v>
+        <v>4.725983493436559e-11</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>263.5638540823999</v>
+        <v>263.5638540823998</v>
       </c>
       <c r="IM2" t="n">
         <v>108.7959836129003</v>
       </c>
       <c r="IN2" t="n">
-        <v>240.0611154028701</v>
+        <v>240.06111540287</v>
       </c>
       <c r="IO2" t="n">
         <v>65.61990965871263</v>
@@ -9007,10 +9007,10 @@
         <v>108.7959836129003</v>
       </c>
       <c r="IR2" t="n">
-        <v>74.75791540287008</v>
+        <v>74.75791540287003</v>
       </c>
       <c r="IS2" t="n">
-        <v>34.49445823944268</v>
+        <v>34.49445823944266</v>
       </c>
       <c r="IT2" t="n">
         <v>260.9393089234662</v>
@@ -9292,7 +9292,7 @@
         <v>0.02408955280636283</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8136207625704925</v>
+        <v>0.8136207625704924</v>
       </c>
       <c r="MJ2" t="n">
         <v>0.4074989125500066</v>
@@ -9613,7 +9613,7 @@
         <v>0.02408581985871508</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02714087598032661</v>
+        <v>0.0271408759803266</v>
       </c>
       <c r="QM2" t="n">
         <v>0.0008514083151524589</v>
@@ -9622,16 +9622,16 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.08223654376374555</v>
+        <v>0.08223654376374549</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04172633511866303</v>
+        <v>0.041726335118663</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1658540054064643</v>
+        <v>0.1658540054064642</v>
       </c>
       <c r="QR2" t="n">
-        <v>2.402868945669545e-05</v>
+        <v>2.402868945680647e-05</v>
       </c>
       <c r="QS2" t="n">
         <v>0.5348960932622118</v>
@@ -9664,10 +9664,10 @@
         <v>0.0002341272891364445</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.0288658903677445</v>
+        <v>0.02886589036774451</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01465049476147925</v>
+        <v>0.01465049476147926</v>
       </c>
       <c r="RE2" t="n">
         <v>0.004937114520142971</v>
@@ -9678,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01761869839159354</v>
+        <v>0.01761869853766278</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9687,25 +9687,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0491444352530653</v>
+        <v>0.04914443528569918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204320218390196</v>
+        <v>0.08204320236260509</v>
       </c>
       <c r="H3" t="n">
-        <v>3.208683319044781e-13</v>
+        <v>1.129818461009791e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350711537</v>
+        <v>80.71248350705856</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350711537</v>
+        <v>80.71248350705856</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350711537</v>
+        <v>80.71248350705856</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350711537</v>
+        <v>80.71248350705856</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9726,106 +9726,106 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750145454</v>
+        <v>292.3522750146499</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796841238</v>
+        <v>132772.1796842909</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747000254</v>
+        <v>1.582932747001679</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439823686</v>
+        <v>334649.8439824436</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785916466</v>
+        <v>418527.1785917516</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142072975</v>
+        <v>-687417.3142075875</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517427</v>
+        <v>717.7129007517474</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845945</v>
+        <v>1006.647652845951</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602407</v>
+        <v>1.402577063602406</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405102</v>
+        <v>0.999497963340511</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100794797</v>
+        <v>342.9081100795411</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856006159</v>
+        <v>186130.68560085</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261071324e-06</v>
+        <v>5.372569261064566e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094702691</v>
+        <v>132706.2094704361</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.53544241819397e-06</v>
+        <v>7.535442418184486e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00343346212470767</v>
+        <v>0.003433462124706445</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498305e-05</v>
+        <v>1.817140103498816e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250873434</v>
+        <v>0.0258242925087422</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796841238</v>
+        <v>132772.1796842909</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747000254</v>
+        <v>1.582932747001679</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747000254</v>
+        <v>1.582932747001679</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439823686</v>
+        <v>334649.8439824436</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785916466</v>
+        <v>418527.1785917516</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517427</v>
+        <v>717.7129007517474</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845945</v>
+        <v>1006.647652845951</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100794797</v>
+        <v>342.9081100795411</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405102</v>
+        <v>0.999497963340511</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498305e-05</v>
+        <v>1.817140103498816e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250873434</v>
+        <v>0.0258242925087422</v>
       </c>
       <c r="AW3" t="n">
         <v>295.6000000001888</v>
       </c>
       <c r="AX3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="AZ3" t="n">
         <v>336973.3475829663</v>
@@ -9834,10 +9834,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BB3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BC3" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="BD3" t="n">
         <v>717.8632360362602</v>
@@ -9855,16 +9855,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BI3" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="BL3" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="BM3" t="n">
         <v>0.003395798695744087</v>
@@ -9876,13 +9876,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="BP3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BS3" t="n">
         <v>336973.3475829663</v>
@@ -9891,7 +9891,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BU3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BV3" t="n">
         <v>717.8632360362602</v>
@@ -9915,10 +9915,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="CC3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CE3" t="n">
         <v>336973.3475829663</v>
@@ -9927,10 +9927,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CG3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="CH3" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="CI3" t="n">
         <v>717.8632360362602</v>
@@ -9948,16 +9948,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CN3" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="CO3" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="CR3" t="n">
         <v>0.003395798695744087</v>
@@ -9969,13 +9969,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="CU3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CX3" t="n">
         <v>336973.3475829663</v>
@@ -9984,7 +9984,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CZ3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="DA3" t="n">
         <v>717.8632360362602</v>
@@ -10005,16 +10005,16 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353764204888818</v>
+        <v>0.235376420488674</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2353764204888818</v>
+        <v>0.235376420488674</v>
       </c>
       <c r="DI3" t="n">
-        <v>183929.97034167</v>
+        <v>183929.9703416543</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.742859854030453</v>
+        <v>2.74285985403099</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -10023,310 +10023,310 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>306.8418981822652</v>
+        <v>306.8418844656294</v>
       </c>
       <c r="DN3" t="n">
-        <v>125.3773443056068</v>
+        <v>125.3773387009114</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.0579797380695</v>
+        <v>280.057967218745</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>306.8418981822652</v>
+        <v>306.8418844656294</v>
       </c>
       <c r="DR3" t="n">
-        <v>125.3773443056068</v>
+        <v>125.3773387009114</v>
       </c>
       <c r="DS3" t="n">
-        <v>280.0579797380695</v>
+        <v>280.057967218745</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>248.6139858036789</v>
+        <v>248.6139900070169</v>
       </c>
       <c r="DV3" t="n">
-        <v>72670.28555086387</v>
+        <v>72670.29002878447</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.019019540188359</v>
+        <v>1.019019585738042</v>
       </c>
       <c r="DX3" t="n">
-        <v>303394.5284066489</v>
+        <v>303394.5314089437</v>
       </c>
       <c r="DY3" t="n">
-        <v>374708.455848542</v>
+        <v>374708.4600574807</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3793.461869927345</v>
+        <v>3793.461869181597</v>
       </c>
       <c r="EA3" t="n">
-        <v>-568399.2196283723</v>
+        <v>-568399.2311792324</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2663342580755</v>
+        <v>716.2663343504157</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.832375500392</v>
+        <v>1004.832375624985</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402875337623148</v>
+        <v>1.402875337616238</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992923632687296</v>
+        <v>0.9992923632818068</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.1865736928534</v>
+        <v>316.1865763691429</v>
       </c>
       <c r="EG3" t="n">
-        <v>101875.407931717</v>
+        <v>101875.4142101014</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.815911615001923e-06</v>
+        <v>9.815911010066308e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72619.00270078282</v>
+        <v>72619.00717650923</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.37705003209748e-05</v>
+        <v>1.377049947225772e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004035765732296399</v>
+        <v>0.004035765664235652</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.596159543948072e-05</v>
+        <v>1.596159565886564e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02244419772194699</v>
+        <v>0.02244419805511642</v>
       </c>
       <c r="EN3" t="n">
-        <v>72670.28555086387</v>
+        <v>72670.29002878447</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.019019540188359</v>
+        <v>1.019019585738042</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.019019540188359</v>
+        <v>1.019019585738042</v>
       </c>
       <c r="EQ3" t="n">
-        <v>303394.5284066489</v>
+        <v>303394.5314089437</v>
       </c>
       <c r="ER3" t="n">
-        <v>374708.455848542</v>
+        <v>374708.4600574807</v>
       </c>
       <c r="ES3" t="n">
-        <v>3793.461869927345</v>
+        <v>3793.461869181597</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2663342580755</v>
+        <v>716.2663343504157</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.832375500392</v>
+        <v>1004.832375624985</v>
       </c>
       <c r="EV3" t="n">
-        <v>316.1865736928534</v>
+        <v>316.1865763691429</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992923632687296</v>
+        <v>0.9992923632818068</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.596159543948072e-05</v>
+        <v>1.596159565886564e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02244419772194699</v>
+        <v>0.02244419805511642</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5884537386489</v>
+        <v>295.5884537394506</v>
       </c>
       <c r="FA3" t="n">
-        <v>133020.3586774902</v>
+        <v>133020.3590232337</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="FC3" t="n">
-        <v>336975.222265663</v>
+        <v>336975.2222655328</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FE3" t="n">
-        <v>3793.461869934777</v>
+        <v>3793.461869189029</v>
       </c>
       <c r="FF3" t="n">
-        <v>-699519.0973620551</v>
+        <v>-699519.0971446618</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.850265671225</v>
+        <v>717.8502656721255</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.739822659616</v>
+        <v>1006.739822665293</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402437069126478</v>
+        <v>1.402437069132627</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995380147668408</v>
+        <v>0.9995380147656631</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.7973817649729</v>
+        <v>344.7973817657947</v>
       </c>
       <c r="FL3" t="n">
-        <v>186467.4455807914</v>
+        <v>186467.4460660562</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.362866407513083e-06</v>
+        <v>5.362866393556703e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>132959.5813500099</v>
+        <v>132959.5816954423</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.52108264666949e-06</v>
+        <v>7.521082627129524e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395470178512488</v>
+        <v>0.003395470178535305</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832867335233004e-05</v>
+        <v>1.832867335241878e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606617654980824</v>
+        <v>0.02606617654997884</v>
       </c>
       <c r="FS3" t="n">
-        <v>133020.3586774902</v>
+        <v>133020.3590232337</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="FV3" t="n">
-        <v>336975.222265663</v>
+        <v>336975.2222655328</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FX3" t="n">
-        <v>3793.461869934777</v>
+        <v>3793.461869189029</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.850265671225</v>
+        <v>717.8502656721255</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.739822659616</v>
+        <v>1006.739822665293</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.7973817649729</v>
+        <v>344.7973817657947</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995380147668408</v>
+        <v>0.9995380147656631</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832867335233004e-05</v>
+        <v>1.832867335241878e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606617654980824</v>
+        <v>0.02606617654997884</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5884537386489</v>
+        <v>295.5884537394506</v>
       </c>
       <c r="GF3" t="n">
-        <v>133020.3586774902</v>
+        <v>133020.3590232337</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="GH3" t="n">
-        <v>336975.222265663</v>
+        <v>336975.2222655328</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3793.461869934777</v>
+        <v>3793.461869189029</v>
       </c>
       <c r="GK3" t="n">
-        <v>-699519.0973620551</v>
+        <v>-699519.0971446618</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.850265671225</v>
+        <v>717.8502656721255</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.739822659616</v>
+        <v>1006.739822665293</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402437069126478</v>
+        <v>1.402437069132627</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995380147668408</v>
+        <v>0.9995380147656631</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.7973817649729</v>
+        <v>344.7973817657947</v>
       </c>
       <c r="GQ3" t="n">
-        <v>186467.4455807914</v>
+        <v>186467.4460660562</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.362866407513083e-06</v>
+        <v>5.362866393556703e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>132959.5813500099</v>
+        <v>132959.5816954423</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.52108264666949e-06</v>
+        <v>7.521082627129524e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395470178512488</v>
+        <v>0.003395470178535305</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832867335233004e-05</v>
+        <v>1.832867335241878e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606617654980824</v>
+        <v>0.02606617654997884</v>
       </c>
       <c r="GX3" t="n">
-        <v>133020.3586774902</v>
+        <v>133020.3590232337</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.568465978209759</v>
+        <v>1.568465982284075</v>
       </c>
       <c r="HA3" t="n">
-        <v>336975.222265663</v>
+        <v>336975.2222655328</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="HC3" t="n">
-        <v>3793.461869934777</v>
+        <v>3793.461869189029</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.850265671225</v>
+        <v>717.8502656721255</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.739822659616</v>
+        <v>1006.739822665293</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.7973817649729</v>
+        <v>344.7973817657947</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995380147668408</v>
+        <v>0.9995380147656631</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832867335233004e-05</v>
+        <v>1.832867335241878e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606617654980824</v>
+        <v>0.02606617654997884</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01795407859118268</v>
+        <v>0.01795407854873812</v>
       </c>
       <c r="HK3" t="n">
         <v>0</v>
@@ -10335,28 +10335,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.04927004797734958</v>
+        <v>0.04927004794115912</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.08250419510777539</v>
+        <v>0.08250419502914037</v>
       </c>
       <c r="HP3" t="n">
-        <v>8.402804319074253e-06</v>
+        <v>8.402803646542778e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9704456916008531</v>
+        <v>0.9704456400052743</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9704456916008531</v>
+        <v>0.9704456400052743</v>
       </c>
       <c r="HS3" t="n">
-        <v>512458.3963623562</v>
+        <v>512458.3893172585</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.742849774796536</v>
+        <v>2.742849774788034</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10365,733 +10365,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>2113.446610952378</v>
+        <v>2113.446636958804</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006643765851860967</v>
+        <v>0.00664376597212233</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.01853168227790841</v>
+        <v>0.01853168247202491</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005761901096142026</v>
+        <v>0.005761901152670912</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02707894880009905</v>
+        <v>0.02707894910851081</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0007370770797422196</v>
+        <v>0.0007370772172542749</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01389216954460171</v>
+        <v>0.01389216954113381</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08157447923654525</v>
+        <v>0.08157448037312864</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04147531797976777</v>
+        <v>0.04147531836901099</v>
       </c>
       <c r="II3" t="n">
-        <v>0.164757992640756</v>
+        <v>0.1647579946090385</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-1.313790742862864e-11</v>
+        <v>4.002370657119059e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>263.7260035389042</v>
+        <v>263.7260050271539</v>
       </c>
       <c r="IM3" t="n">
-        <v>108.7970349322904</v>
+        <v>108.797034945052</v>
       </c>
       <c r="IN3" t="n">
-        <v>240.2386524532305</v>
+        <v>240.2386540812022</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.63562318476484</v>
+        <v>65.63562332814774</v>
       </c>
       <c r="IP3" t="n">
-        <v>132.1064602675751</v>
+        <v>132.106461201528</v>
       </c>
       <c r="IQ3" t="n">
-        <v>108.7970349322904</v>
+        <v>108.797034945052</v>
       </c>
       <c r="IR3" t="n">
-        <v>74.93545245323054</v>
+        <v>74.93545408120218</v>
       </c>
       <c r="IS3" t="n">
-        <v>34.55766150064554</v>
+        <v>34.55766207899085</v>
       </c>
       <c r="IT3" t="n">
-        <v>260.8965734653905</v>
+        <v>260.8965730732838</v>
       </c>
       <c r="IU3" t="n">
-        <v>86724.35709645181</v>
+        <v>86724.35660657617</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.158791012106398</v>
+        <v>1.158791007304075</v>
       </c>
       <c r="IW3" t="n">
-        <v>312168.3508527288</v>
+        <v>312168.3505726276</v>
       </c>
       <c r="IX3" t="n">
-        <v>387008.7286174891</v>
+        <v>387008.7282247981</v>
       </c>
       <c r="IY3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-602060.0508546281</v>
+        <v>-602060.049790884</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5707622999762</v>
+        <v>716.5707622890736</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.233646368551</v>
+        <v>1005.233646354304</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402839327608141</v>
+        <v>1.402839327609602</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993356156818262</v>
+        <v>0.9993356156803489</v>
       </c>
       <c r="JE3" t="n">
-        <v>323.9128726925523</v>
+        <v>323.9128724488306</v>
       </c>
       <c r="JF3" t="n">
-        <v>121579.8304866331</v>
+        <v>121579.8297998149</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.225048480470972e-06</v>
+        <v>8.2250485269352e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>86666.96755210614</v>
+        <v>86666.9670624244</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.153842147988825e-05</v>
+        <v>1.153842154508212e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003846245880347697</v>
+        <v>0.003846245886111745</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.659665538563317e-05</v>
+        <v>1.659665536554677e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02341062007940167</v>
+        <v>0.02341062004877046</v>
       </c>
       <c r="JM3" t="n">
-        <v>86724.35709645181</v>
+        <v>86724.35660657617</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.158791012106398</v>
+        <v>1.158791007304075</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.158791012106398</v>
+        <v>1.158791007304075</v>
       </c>
       <c r="JP3" t="n">
-        <v>312168.3508527288</v>
+        <v>312168.3505726276</v>
       </c>
       <c r="JQ3" t="n">
-        <v>387008.7286174891</v>
+        <v>387008.7282247981</v>
       </c>
       <c r="JR3" t="n">
-        <v>3791.037829031983</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5707622999762</v>
+        <v>716.5707622890736</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.233646368551</v>
+        <v>1005.233646354304</v>
       </c>
       <c r="JU3" t="n">
-        <v>323.9128726925523</v>
+        <v>323.9128724488306</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993356156818262</v>
+        <v>0.9993356156803489</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659665538563317e-05</v>
+        <v>1.659665536554677e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02341062007940167</v>
+        <v>0.02341062004877046</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5910708749014</v>
+        <v>295.5910708745762</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134148.9565550131</v>
+        <v>134148.9565008311</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.581765547737386</v>
+        <v>1.581765547099973</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.7974822775</v>
+        <v>336974.7974821545</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.037829037208</v>
+        <v>3791.037829152413</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698812.5005235794</v>
+        <v>-698812.5005566005</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8532055403355</v>
+        <v>717.8532055401857</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.758353832308</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402457140348785</v>
+        <v>1.402457140347831</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.9995341712882586</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8000645108005</v>
+        <v>344.8000645105555</v>
       </c>
       <c r="KK3" t="n">
-        <v>188051.4943119303</v>
+        <v>188051.4942358829</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.317692388773314e-06</v>
+        <v>5.317692390923773e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>134087.1595299965</v>
+        <v>134087.1594758634</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.457835660813524e-06</v>
+        <v>7.457835663824373e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395544649989417</v>
+        <v>0.003395544649988161</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832896306784329e-05</v>
+        <v>1.83289630678197e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606673348875221</v>
+        <v>0.02606673348871058</v>
       </c>
       <c r="KR3" t="n">
-        <v>134148.9565550131</v>
+        <v>134148.9565008311</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.581765547737386</v>
+        <v>1.581765547099973</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581765547737386</v>
+        <v>1.581765547099973</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.7974822775</v>
+        <v>336974.7974821545</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KW3" t="n">
-        <v>3791.037829037208</v>
+        <v>3791.037829152413</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8532055403355</v>
+        <v>717.8532055401857</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.758353832308</v>
+        <v>1006.758353831412</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8000645108005</v>
+        <v>344.8000645105555</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9995341712882586</v>
+        <v>0.9995341712884407</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832896306784329e-05</v>
+        <v>1.83289630678197e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606673348875221</v>
+        <v>0.02606673348871058</v>
       </c>
       <c r="LD3" t="n">
-        <v>269.606265492851</v>
+        <v>269.6062652241726</v>
       </c>
       <c r="LE3" t="n">
-        <v>97263.5247742123</v>
+        <v>97263.52439672702</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.25757652107985</v>
+        <v>1.257576517453776</v>
       </c>
       <c r="LG3" t="n">
-        <v>318392.7540547469</v>
+        <v>318392.7538628</v>
       </c>
       <c r="LH3" t="n">
-        <v>395734.7870395028</v>
+        <v>395734.7867703937</v>
       </c>
       <c r="LI3" t="n">
-        <v>3791.037829031982</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-626352.7643879354</v>
+        <v>-626352.7636695344</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.8294850165214</v>
+        <v>716.8294850078072</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.552545563297</v>
+        <v>1005.552545552049</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402777880349218</v>
+        <v>1.402777880350579</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993770519447986</v>
+        <v>0.9993770519436833</v>
       </c>
       <c r="LO3" t="n">
-        <v>329.2817209215686</v>
+        <v>329.2817207572832</v>
       </c>
       <c r="LP3" t="n">
-        <v>136354.5599635062</v>
+        <v>136354.5594342836</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.33382147445336e-06</v>
+        <v>7.333821502917561e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>97203.24355952992</v>
+        <v>97203.24318216814</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.028772254279326e-05</v>
+        <v>1.028772258273219e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003722224623003749</v>
+        <v>0.003722224626701018</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.703980596576879e-05</v>
+        <v>1.703980595218093e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02408727596820721</v>
+        <v>0.02408727594742519</v>
       </c>
       <c r="LW3" t="n">
-        <v>97263.5247742123</v>
+        <v>97263.52439672702</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.25757652107985</v>
+        <v>1.257576517453776</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.25757652107985</v>
+        <v>1.257576517453776</v>
       </c>
       <c r="LZ3" t="n">
-        <v>318392.7540547469</v>
+        <v>318392.7538628</v>
       </c>
       <c r="MA3" t="n">
-        <v>395734.7870395028</v>
+        <v>395734.7867703937</v>
       </c>
       <c r="MB3" t="n">
-        <v>3791.037829031982</v>
+        <v>3791.037829147187</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.8294850165214</v>
+        <v>716.8294850078072</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.552545563297</v>
+        <v>1005.552545552049</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2817209215686</v>
+        <v>329.2817207572832</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993770519447986</v>
+        <v>0.9993770519436833</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.703980596576879e-05</v>
+        <v>1.703980595218093e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408727596820721</v>
+        <v>0.02408727594742519</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8141880912192843</v>
+        <v>0.8141880964265025</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4078456628457811</v>
+        <v>0.4078456660360026</v>
       </c>
       <c r="MK3" t="n">
-        <v>240371.5196112354</v>
+        <v>240371.5206053433</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.706590924640505</v>
+        <v>2.706590913741183</v>
       </c>
       <c r="MM3" t="n">
-        <v>382072.2130744832</v>
+        <v>382072.2128051735</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>162.2027642332915</v>
+        <v>162.2027682125669</v>
       </c>
       <c r="MP3" t="n">
-        <v>137.9941224767013</v>
+        <v>137.9941246812712</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-85.24880577935335</v>
+        <v>-85.24880978212826</v>
       </c>
       <c r="MR3" t="n">
-        <v>-31.70658135941551</v>
+        <v>-31.70658215303305</v>
       </c>
       <c r="MS3" t="n">
-        <v>286.0396571074926</v>
+        <v>286.0396616772121</v>
       </c>
       <c r="MT3" t="n">
-        <v>137.9941224767013</v>
+        <v>137.9941246812712</v>
       </c>
       <c r="MU3" t="n">
-        <v>-250.5520057793534</v>
+        <v>-250.5520097821283</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>228.7445789158682</v>
+        <v>228.7445773409576</v>
       </c>
       <c r="MX3" t="n">
-        <v>51101.27127876752</v>
+        <v>51101.26990470878</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7788201518023767</v>
+        <v>0.7788201362238837</v>
       </c>
       <c r="MZ3" t="n">
-        <v>289211.7449824776</v>
+        <v>289211.7438579794</v>
       </c>
       <c r="NA3" t="n">
-        <v>354825.4443205172</v>
+        <v>354825.4427441866</v>
       </c>
       <c r="NB3" t="n">
-        <v>3811.11374067258</v>
+        <v>3811.113741494248</v>
       </c>
       <c r="NC3" t="n">
-        <v>-516946.1634901114</v>
+        <v>-516946.159252231</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8960653725613</v>
+        <v>715.8960653495952</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.247336001581</v>
+        <v>1004.247335965163</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402783706429449</v>
+        <v>1.402783706423581</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992806636157571</v>
+        <v>0.9992806636145249</v>
       </c>
       <c r="NH3" t="n">
-        <v>303.2749738678808</v>
+        <v>303.2749728228373</v>
       </c>
       <c r="NI3" t="n">
-        <v>71632.53624875711</v>
+        <v>71632.5343222426</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.39601367251233e-05</v>
+        <v>1.396013710057289e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>51064.56249843801</v>
+        <v>51064.56112530053</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.958305233753033e-05</v>
+        <v>1.958305286412299e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004384744701710761</v>
+        <v>0.004384744731803062</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.490768019423294e-05</v>
+        <v>1.490768010938355e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02084864746204697</v>
+        <v>0.0208486473340514</v>
       </c>
       <c r="NP3" t="n">
-        <v>51101.27127876752</v>
+        <v>51101.26990470878</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7788201518023767</v>
+        <v>0.7788201362238837</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7788201518023767</v>
+        <v>0.7788201362238837</v>
       </c>
       <c r="NS3" t="n">
-        <v>289211.7449824776</v>
+        <v>289211.7438579794</v>
       </c>
       <c r="NT3" t="n">
-        <v>354825.4443205172</v>
+        <v>354825.4427441866</v>
       </c>
       <c r="NU3" t="n">
-        <v>3811.11374067258</v>
+        <v>3811.113741494248</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8960653725613</v>
+        <v>715.8960653495952</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.247336001581</v>
+        <v>1004.247335965163</v>
       </c>
       <c r="NX3" t="n">
-        <v>303.2749738678808</v>
+        <v>303.2749728228373</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992806636157571</v>
+        <v>0.9992806636145249</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.490768019423294e-05</v>
+        <v>1.490768010938355e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02084864746204697</v>
+        <v>0.0208486473340514</v>
       </c>
       <c r="OB3" t="n">
-        <v>241.8817790057301</v>
+        <v>241.8817780756797</v>
       </c>
       <c r="OC3" t="n">
-        <v>62100.2489352107</v>
+        <v>62100.24792426202</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.8950190010519466</v>
+        <v>0.8950189899237299</v>
       </c>
       <c r="OE3" t="n">
-        <v>298596.0327265614</v>
+        <v>298596.0320626186</v>
       </c>
       <c r="OF3" t="n">
-        <v>367980.3126828775</v>
+        <v>367980.3117520964</v>
       </c>
       <c r="OG3" t="n">
-        <v>3811.113740664931</v>
+        <v>3811.1137414866</v>
       </c>
       <c r="OH3" t="n">
-        <v>-553858.6589023387</v>
+        <v>-553858.6564873386</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.1121939786772</v>
+        <v>716.1121939602925</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.545337445047</v>
+        <v>1004.545337416856</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402776472585744</v>
+        <v>1.402776472582391</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9993133781964673</v>
+        <v>0.9993133781957257</v>
       </c>
       <c r="OM3" t="n">
-        <v>311.8716832851883</v>
+        <v>311.8716826849943</v>
       </c>
       <c r="ON3" t="n">
-        <v>87053.08053475377</v>
+        <v>87053.07911731387</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.148724426358209e-05</v>
+        <v>1.14872444506229e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62057.69930991819</v>
+        <v>62057.69829961337</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.61140359877985e-05</v>
+        <v>1.611403625013644e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004147050240852978</v>
+        <v>0.00414705025673132</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.560778220788921e-05</v>
+        <v>1.560778215881681e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02190692590017546</v>
+        <v>0.02190692582580269</v>
       </c>
       <c r="OU3" t="n">
-        <v>62100.2489352107</v>
+        <v>62100.24792426202</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.8950190010519466</v>
+        <v>0.8950189899237299</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.8950190010519466</v>
+        <v>0.8950189899237299</v>
       </c>
       <c r="OX3" t="n">
-        <v>298596.0327265614</v>
+        <v>298596.0320626186</v>
       </c>
       <c r="OY3" t="n">
-        <v>367980.3126828775</v>
+        <v>367980.3117520964</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3811.113740664931</v>
+        <v>3811.1137414866</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.1121939786772</v>
+        <v>716.1121939602925</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.545337445047</v>
+        <v>1004.545337416856</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.8716832851883</v>
+        <v>311.8716826849943</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993133781964673</v>
+        <v>0.9993133781957257</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.560778220788921e-05</v>
+        <v>1.560778215881681e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02190692590017546</v>
+        <v>0.02190692582580269</v>
       </c>
       <c r="PG3" t="n">
-        <v>269.5878848866319</v>
+        <v>269.587884617164</v>
       </c>
       <c r="PH3" t="n">
-        <v>90689.62709730404</v>
+        <v>90689.62652176194</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.17260982837015</v>
+        <v>1.17260982210008</v>
       </c>
       <c r="PJ3" t="n">
-        <v>318394.801561877</v>
+        <v>318394.8013698437</v>
       </c>
       <c r="PK3" t="n">
-        <v>395734.7870397035</v>
+        <v>395734.7867703939</v>
       </c>
       <c r="PL3" t="n">
-        <v>3811.113740661908</v>
+        <v>3811.113741483576</v>
       </c>
       <c r="PM3" t="n">
-        <v>-631695.3053677198</v>
+        <v>-631695.3048315684</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.8080181766386</v>
+        <v>716.8080181672167</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.418031200354</v>
+        <v>1005.418031184726</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402632233045968</v>
+        <v>1.402632233042603</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9994187311417224</v>
+        <v>0.9994187311421002</v>
       </c>
       <c r="PR3" t="n">
-        <v>329.2670655089102</v>
+        <v>329.2670653440742</v>
       </c>
       <c r="PS3" t="n">
-        <v>127130.6057433133</v>
+        <v>127130.6049362455</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.865926494671776e-06</v>
+        <v>7.865926544607323e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>90637.1625777025</v>
+        <v>90637.16200252478</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.103300204419692e-05</v>
+        <v>1.103300211421165e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003721595139245009</v>
+        <v>0.003721595142923586</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.703788280835619e-05</v>
+        <v>1.703788279469765e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02408354122006591</v>
+        <v>0.02408354119915038</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90689.62709730404</v>
+        <v>90689.62652176194</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.17260982837015</v>
+        <v>1.17260982210008</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.17260982837015</v>
+        <v>1.17260982210008</v>
       </c>
       <c r="QC3" t="n">
-        <v>318394.801561877</v>
+        <v>318394.8013698437</v>
       </c>
       <c r="QD3" t="n">
-        <v>395734.7870397035</v>
+        <v>395734.7867703939</v>
       </c>
       <c r="QE3" t="n">
-        <v>3811.113740661908</v>
+        <v>3811.113741483576</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.8080181766386</v>
+        <v>716.8080181672167</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.418031200354</v>
+        <v>1005.418031184726</v>
       </c>
       <c r="QH3" t="n">
-        <v>329.2670655089102</v>
+        <v>329.2670653440742</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9994187311417224</v>
+        <v>0.9994187311421002</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.703788280835619e-05</v>
+        <v>1.703788279469765e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02408354122006591</v>
+        <v>0.02408354119915038</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02716239609275801</v>
+        <v>0.02716239626210316</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.0008657268483977956</v>
+        <v>0.0008657269907845802</v>
       </c>
       <c r="QN3" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.08233925484469612</v>
+        <v>0.08233925586891055</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04176601935175529</v>
+        <v>0.0417660197152253</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1660322393661838</v>
+        <v>0.1660322410656002</v>
       </c>
       <c r="QR3" t="n">
-        <v>2.410576321301705e-05</v>
+        <v>2.410571726421673e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5348372869828482</v>
+        <v>0.534837301946838</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9431693405473787</v>
+        <v>0.9431693588653175</v>
       </c>
       <c r="QU3" t="n">
-        <v>389428.5368165426</v>
+        <v>389428.537464862</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.706564325504935</v>
+        <v>2.706564314605982</v>
       </c>
       <c r="QW3" t="n">
-        <v>382072.2130744832</v>
+        <v>382072.2128051735</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>4015.781410575844</v>
+        <v>4015.781422948465</v>
       </c>
       <c r="QZ3" t="n">
-        <v>4.598004485820994</v>
+        <v>4.598005162861483</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.009661558603811675</v>
+        <v>0.009661558625140438</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.000262983377014612</v>
+        <v>0.0002629834236631935</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02910514058494093</v>
+        <v>0.02910514072322852</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01479807130739819</v>
+        <v>0.01479807131040474</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004956618190022434</v>
+        <v>0.004956618143274617</v>
       </c>
     </row>
   </sheetData>
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4488754902751093</v>
+        <v>0.4488754810085762</v>
       </c>
     </row>
   </sheetData>
@@ -11928,7 +11928,7 @@
         <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>9.429547107843096e-08</v>
+        <v>9.429544878685933e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11950,16 +11950,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>5.147384487364273e-08</v>
+        <v>7.032811519795164e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
